--- a/欧地航线E&ATA与脱班时间统计.xlsx
+++ b/欧地航线E&ATA与脱班时间统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\demo\capaStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FB9815C-7BFD-4663-9E1F-B47E41D62356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636A1AFD-9D88-4012-B1B3-245817470868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="657" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" tabRatio="657" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AEU1" sheetId="1" r:id="rId1"/>
@@ -2690,7 +2690,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2780,20 +2780,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFC00000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2870,7 +2900,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2900,6 +2930,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2922,9 +2953,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -3214,10 +3269,10 @@
   <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
@@ -3257,242 +3312,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="17" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="17" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="17" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="17" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="17" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="17" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="17" t="s">
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="17" t="s">
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="19" t="s">
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="18"/>
+      <c r="AH1" s="28"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="28"/>
+      <c r="S2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="28"/>
+      <c r="U2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="28"/>
+      <c r="W2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="17" t="s">
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="19" t="s">
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="18"/>
+      <c r="AH2" s="28"/>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AF3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AG3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AH3" s="34" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3539,6 +3594,8 @@
       <c r="N4" s="15">
         <v>2</v>
       </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="15" t="s">
         <v>26</v>
       </c>
@@ -3548,7 +3605,7 @@
       <c r="S4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="15">
         <v>17</v>
       </c>
       <c r="U4" s="15" t="s">
@@ -3563,6 +3620,8 @@
       <c r="X4" s="15">
         <v>2</v>
       </c>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="36"/>
       <c r="AA4" s="15" t="s">
         <v>30</v>
       </c>
@@ -3581,422 +3640,436 @@
       <c r="AF4" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="14" t="s">
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+    </row>
+    <row r="5" spans="1:34" s="38" customFormat="1">
+      <c r="A5" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="40">
         <v>3</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="40">
+        <v>0</v>
+      </c>
+      <c r="I5" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="40">
         <v>2</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="40">
         <v>1</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="40">
         <v>2</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="40">
         <v>4</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="40">
         <v>17</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="40">
         <v>1</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="40">
         <v>2</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AB5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" s="15">
+      <c r="AD5" s="40">
         <v>-1</v>
       </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AE5" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="AF5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="14" t="s">
+      <c r="AF5" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" s="38" customFormat="1">
+      <c r="A6" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="40">
         <v>2</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="40">
         <v>1</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="40">
         <v>3</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="40">
         <v>3</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="40">
         <v>3</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="40">
         <v>4</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="P6" s="39"/>
+      <c r="Q6" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="40">
         <v>4</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="40">
         <v>17</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="V6" s="15">
-        <v>0</v>
-      </c>
-      <c r="W6" s="15" t="s">
+      <c r="V6" s="40">
+        <v>0</v>
+      </c>
+      <c r="W6" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="X6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="15" t="s">
+      <c r="X6" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AB6" s="40">
         <v>-1</v>
       </c>
-      <c r="AC6" s="15" t="s">
+      <c r="AC6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="AD6" s="15">
+      <c r="AD6" s="40">
         <v>-1</v>
       </c>
-      <c r="AE6" s="15" t="s">
+      <c r="AE6" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AF6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="14" t="s">
+      <c r="AF6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="38" customFormat="1">
+      <c r="A7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="40">
+        <v>0</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="40">
         <v>2</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="40">
         <v>2</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="40">
         <v>2</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="40">
         <v>3</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="40">
         <v>3</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S7" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="40">
         <v>15</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="U7" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="V7" s="15">
-        <v>0</v>
-      </c>
-      <c r="W7" s="15" t="s">
+      <c r="V7" s="40">
+        <v>0</v>
+      </c>
+      <c r="W7" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="X7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="15" t="s">
+      <c r="X7" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="AB7" s="40">
         <v>-1</v>
       </c>
-      <c r="AC7" s="15" t="s">
+      <c r="AC7" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="AD7" s="15">
+      <c r="AD7" s="40">
         <v>-1</v>
       </c>
-      <c r="AE7" s="15" t="s">
+      <c r="AE7" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="AF7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="14" t="s">
+      <c r="AF7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="38" customFormat="1">
+      <c r="A8" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="40">
+        <v>0</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="40">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="40">
         <v>1</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="40">
         <v>1</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="40">
         <v>1</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="40">
         <v>1</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="P8" s="39"/>
+      <c r="Q8" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="40">
         <v>4</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="T8" s="15">
+      <c r="T8" s="40">
         <v>3</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="U8" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="V8" s="15">
-        <v>0</v>
-      </c>
-      <c r="W8" s="15" t="s">
+      <c r="V8" s="40">
+        <v>0</v>
+      </c>
+      <c r="W8" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="X8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="15" t="s">
+      <c r="X8" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="AB8" s="15">
+      <c r="AB8" s="40">
         <v>-1</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AC8" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="AD8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="15" t="s">
+      <c r="AD8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="AF8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="14" t="s">
+      <c r="AF8" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" s="38" customFormat="1">
+      <c r="A9" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="40">
+        <v>0</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="40">
         <v>-1</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="40">
         <v>1</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
-      <c r="K9" s="15" t="s">
+      <c r="J9" s="40">
+        <v>0</v>
+      </c>
+      <c r="K9" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="15">
-        <v>0</v>
-      </c>
-      <c r="M9" s="15" t="s">
+      <c r="L9" s="40">
+        <v>0</v>
+      </c>
+      <c r="M9" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="40">
         <v>1</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="P9" s="39"/>
+      <c r="Q9" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="15">
-        <v>0</v>
-      </c>
-      <c r="S9" s="15" t="s">
+      <c r="R9" s="40">
+        <v>0</v>
+      </c>
+      <c r="S9" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="T9" s="15">
-        <v>0</v>
-      </c>
-      <c r="U9" s="15" t="s">
+      <c r="T9" s="40">
+        <v>0</v>
+      </c>
+      <c r="U9" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="V9" s="15">
-        <v>0</v>
-      </c>
-      <c r="W9" s="15" t="s">
+      <c r="V9" s="40">
+        <v>0</v>
+      </c>
+      <c r="W9" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="X9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="15" t="s">
+      <c r="X9" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="AB9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="15" t="s">
+      <c r="AB9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="AD9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="15" t="s">
+      <c r="AD9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AF9" s="15">
+      <c r="AF9" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4043,6 +4116,8 @@
       <c r="N10" s="15">
         <v>1</v>
       </c>
+      <c r="O10" s="35"/>
+      <c r="P10" s="36"/>
       <c r="Q10" s="15" t="s">
         <v>100</v>
       </c>
@@ -4067,6 +4142,8 @@
       <c r="X10" s="15">
         <v>0</v>
       </c>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="36"/>
       <c r="AA10" s="15" t="s">
         <v>103</v>
       </c>
@@ -4085,439 +4162,441 @@
       <c r="AF10" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" s="26" customFormat="1">
-      <c r="A11" s="25" t="s">
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+    </row>
+    <row r="11" spans="1:34" s="38" customFormat="1">
+      <c r="A11" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="40">
         <v>2</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="40">
         <v>4</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="40">
         <v>4</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="40">
         <v>5</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="40">
         <v>5</v>
       </c>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="16" t="s">
+      <c r="P11" s="39"/>
+      <c r="Q11" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="40">
         <v>3</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="S11" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="40">
         <v>3</v>
       </c>
-      <c r="U11" s="16" t="s">
+      <c r="U11" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="V11" s="16">
-        <v>0</v>
-      </c>
-      <c r="W11" s="16" t="s">
+      <c r="V11" s="40">
+        <v>0</v>
+      </c>
+      <c r="W11" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="X11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="16" t="s">
+      <c r="X11" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="AB11" s="16">
+      <c r="AB11" s="40">
         <v>-1</v>
       </c>
-      <c r="AC11" s="16" t="s">
+      <c r="AC11" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="AD11" s="16">
+      <c r="AD11" s="40">
         <v>-1</v>
       </c>
-      <c r="AE11" s="16" t="s">
+      <c r="AE11" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="AF11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" s="26" customFormat="1">
-      <c r="A12" s="25" t="s">
+      <c r="AF11" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" s="38" customFormat="1">
+      <c r="A12" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="40">
         <v>1</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="40">
+        <v>0</v>
+      </c>
+      <c r="G12" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="40">
         <v>2</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="40">
         <v>1</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="40">
         <v>1</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="40">
         <v>1</v>
       </c>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="16" t="s">
+      <c r="P12" s="39"/>
+      <c r="Q12" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="R12" s="16">
-        <v>0</v>
-      </c>
-      <c r="S12" s="16" t="s">
+      <c r="R12" s="40">
+        <v>0</v>
+      </c>
+      <c r="S12" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="16">
-        <v>0</v>
-      </c>
-      <c r="U12" s="16" t="s">
+      <c r="T12" s="40">
+        <v>0</v>
+      </c>
+      <c r="U12" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="V12" s="16">
-        <v>0</v>
-      </c>
-      <c r="W12" s="16" t="s">
+      <c r="V12" s="40">
+        <v>0</v>
+      </c>
+      <c r="W12" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="X12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="16" t="s">
+      <c r="X12" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="AB12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="16" t="s">
+      <c r="AB12" s="40">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="AD12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="16" t="s">
+      <c r="AD12" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="AF12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" s="26" customFormat="1">
-      <c r="A13" s="25" t="s">
+      <c r="AF12" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" s="38" customFormat="1">
+      <c r="A13" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="40">
         <v>1</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="40">
+        <v>0</v>
+      </c>
+      <c r="G13" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="40">
+        <v>0</v>
+      </c>
+      <c r="I13" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="40">
         <v>-1</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="40">
         <v>-1</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="N13" s="16">
-        <v>0</v>
-      </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="16" t="s">
+      <c r="N13" s="40">
+        <v>0</v>
+      </c>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="16">
-        <v>0</v>
-      </c>
-      <c r="S13" s="16" t="s">
+      <c r="R13" s="40">
+        <v>0</v>
+      </c>
+      <c r="S13" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T13" s="16">
-        <v>0</v>
-      </c>
-      <c r="U13" s="16" t="s">
+      <c r="T13" s="40">
+        <v>0</v>
+      </c>
+      <c r="U13" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="V13" s="16">
-        <v>0</v>
-      </c>
-      <c r="W13" s="16" t="s">
+      <c r="V13" s="40">
+        <v>0</v>
+      </c>
+      <c r="W13" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="X13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="16" t="s">
+      <c r="X13" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AB13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="16" t="s">
+      <c r="AB13" s="40">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AD13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="16" t="s">
+      <c r="AD13" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AF13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" s="26" customFormat="1">
-      <c r="A14" s="25" t="s">
+      <c r="AF13" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" s="38" customFormat="1">
+      <c r="A14" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="40">
         <v>2</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="40">
         <v>2</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="40">
         <v>2</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="40">
         <v>1</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="40">
         <v>1</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="40">
         <v>1</v>
       </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="16" t="s">
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="R14" s="16">
-        <v>0</v>
-      </c>
-      <c r="S14" s="16" t="s">
+      <c r="R14" s="40">
+        <v>0</v>
+      </c>
+      <c r="S14" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="T14" s="16">
-        <v>0</v>
-      </c>
-      <c r="U14" s="16" t="s">
+      <c r="T14" s="40">
+        <v>0</v>
+      </c>
+      <c r="U14" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="V14" s="16">
-        <v>0</v>
-      </c>
-      <c r="W14" s="16" t="s">
+      <c r="V14" s="40">
+        <v>0</v>
+      </c>
+      <c r="W14" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="X14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="16" t="s">
+      <c r="X14" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="AB14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="16" t="s">
+      <c r="AB14" s="40">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="AD14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="16" t="s">
+      <c r="AD14" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="AF14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" s="26" customFormat="1">
-      <c r="A15" s="25" t="s">
+      <c r="AF14" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" s="38" customFormat="1">
+      <c r="A15" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="40">
+        <v>0</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="40">
+        <v>0</v>
+      </c>
+      <c r="G15" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="16">
-        <v>0</v>
-      </c>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="40">
+        <v>0</v>
+      </c>
+      <c r="I15" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J15" s="16">
-        <v>0</v>
-      </c>
-      <c r="K15" s="16" t="s">
+      <c r="J15" s="40">
+        <v>0</v>
+      </c>
+      <c r="K15" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="16">
-        <v>0</v>
-      </c>
-      <c r="M15" s="16" t="s">
+      <c r="L15" s="40">
+        <v>0</v>
+      </c>
+      <c r="M15" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="N15" s="16">
-        <v>0</v>
-      </c>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="16" t="s">
+      <c r="N15" s="40">
+        <v>0</v>
+      </c>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="R15" s="16">
-        <v>0</v>
-      </c>
-      <c r="S15" s="16" t="s">
+      <c r="R15" s="40">
+        <v>0</v>
+      </c>
+      <c r="S15" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="T15" s="16">
-        <v>0</v>
-      </c>
-      <c r="U15" s="16" t="s">
+      <c r="T15" s="40">
+        <v>0</v>
+      </c>
+      <c r="U15" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="V15" s="16">
-        <v>0</v>
-      </c>
-      <c r="W15" s="16" t="s">
+      <c r="V15" s="40">
+        <v>0</v>
+      </c>
+      <c r="W15" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="X15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="16" t="s">
+      <c r="X15" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="AB15" s="16">
+      <c r="AB15" s="40">
         <v>-1</v>
       </c>
-      <c r="AC15" s="16" t="s">
+      <c r="AC15" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="AD15" s="16">
+      <c r="AD15" s="40">
         <v>-1</v>
       </c>
-      <c r="AE15" s="16" t="s">
+      <c r="AE15" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="AF15" s="16">
+      <c r="AF15" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4564,6 +4643,8 @@
       <c r="N16" s="15">
         <v>0</v>
       </c>
+      <c r="O16" s="35"/>
+      <c r="P16" s="36"/>
       <c r="Q16" s="15" t="s">
         <v>103</v>
       </c>
@@ -4588,6 +4669,8 @@
       <c r="X16" s="15">
         <v>0</v>
       </c>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="36"/>
       <c r="AA16" s="15" t="s">
         <v>163</v>
       </c>
@@ -4606,8 +4689,10 @@
       <c r="AF16" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+    </row>
+    <row r="17" spans="1:34">
       <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
@@ -4650,6 +4735,8 @@
       <c r="N17" s="15">
         <v>0</v>
       </c>
+      <c r="O17" s="35"/>
+      <c r="P17" s="36"/>
       <c r="Q17" s="15" t="s">
         <v>115</v>
       </c>
@@ -4674,6 +4761,8 @@
       <c r="X17" s="15">
         <v>0</v>
       </c>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="36"/>
       <c r="AA17" s="15" t="s">
         <v>170</v>
       </c>
@@ -4692,358 +4781,410 @@
       <c r="AF17" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" s="26" customFormat="1">
-      <c r="A18" s="25" t="s">
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+    </row>
+    <row r="18" spans="1:34" s="17" customFormat="1">
+      <c r="A18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="16">
-        <v>0</v>
-      </c>
-      <c r="I18" s="16" t="s">
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="16">
-        <v>0</v>
-      </c>
-      <c r="K18" s="16" t="s">
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="L18" s="16">
-        <v>0</v>
-      </c>
-      <c r="M18" s="16" t="s">
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N18" s="16">
-        <v>0</v>
-      </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="16" t="s">
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+      <c r="O18" s="35"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="R18" s="16">
-        <v>0</v>
-      </c>
-      <c r="S18" s="16" t="s">
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="S18" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="T18" s="16">
-        <v>0</v>
-      </c>
-      <c r="U18" s="16" t="s">
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="V18" s="16">
-        <v>0</v>
-      </c>
-      <c r="W18" s="16" t="s">
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="X18" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="27"/>
-    </row>
-    <row r="19" spans="1:32" s="26" customFormat="1">
-      <c r="A19" s="25" t="s">
+      <c r="X18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+    </row>
+    <row r="19" spans="1:34" s="17" customFormat="1">
+      <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-      <c r="I19" s="16" t="s">
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="J19" s="16">
-        <v>0</v>
-      </c>
-      <c r="K19" s="16" t="s">
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="L19" s="16">
-        <v>0</v>
-      </c>
-      <c r="M19" s="16" t="s">
+      <c r="L19" s="15">
+        <v>0</v>
+      </c>
+      <c r="M19" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="N19" s="16">
-        <v>0</v>
-      </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="16" t="s">
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="35"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="R19" s="16">
-        <v>0</v>
-      </c>
-      <c r="S19" s="16" t="s">
+      <c r="R19" s="15">
+        <v>0</v>
+      </c>
+      <c r="S19" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="T19" s="16">
-        <v>0</v>
-      </c>
-      <c r="U19" s="16" t="s">
+      <c r="T19" s="15">
+        <v>0</v>
+      </c>
+      <c r="U19" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="V19" s="16">
-        <v>0</v>
-      </c>
-      <c r="W19" s="16" t="s">
+      <c r="V19" s="15">
+        <v>0</v>
+      </c>
+      <c r="W19" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="X19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="27"/>
-    </row>
-    <row r="20" spans="1:32" s="26" customFormat="1">
-      <c r="A20" s="25" t="s">
+      <c r="X19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+    </row>
+    <row r="20" spans="1:34" s="17" customFormat="1">
+      <c r="A20" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16" t="s">
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="J20" s="16">
-        <v>0</v>
-      </c>
-      <c r="K20" s="16" t="s">
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="L20" s="16">
-        <v>0</v>
-      </c>
-      <c r="M20" s="16" t="s">
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="N20" s="16">
-        <v>0</v>
-      </c>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="16" t="s">
+      <c r="N20" s="15">
+        <v>0</v>
+      </c>
+      <c r="O20" s="35"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="R20" s="16">
-        <v>0</v>
-      </c>
-      <c r="S20" s="16" t="s">
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="S20" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="T20" s="16">
-        <v>0</v>
-      </c>
-      <c r="U20" s="16" t="s">
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="V20" s="16">
-        <v>0</v>
-      </c>
-      <c r="W20" s="16" t="s">
+      <c r="V20" s="15">
+        <v>0</v>
+      </c>
+      <c r="W20" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="X20" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="27"/>
-    </row>
-    <row r="21" spans="1:32" s="26" customFormat="1">
-      <c r="A21" s="25" t="s">
+      <c r="X20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+    </row>
+    <row r="21" spans="1:34" s="17" customFormat="1">
+      <c r="A21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="15">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="16">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="H21" s="16">
-        <v>0</v>
-      </c>
-      <c r="I21" s="16" t="s">
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="J21" s="16">
-        <v>0</v>
-      </c>
-      <c r="K21" s="16" t="s">
+      <c r="J21" s="15">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="L21" s="16">
-        <v>0</v>
-      </c>
-      <c r="M21" s="16" t="s">
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="N21" s="16">
-        <v>0</v>
-      </c>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="16" t="s">
+      <c r="N21" s="15">
+        <v>0</v>
+      </c>
+      <c r="O21" s="35"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="R21" s="16">
-        <v>0</v>
-      </c>
-      <c r="S21" s="16" t="s">
+      <c r="R21" s="15">
+        <v>0</v>
+      </c>
+      <c r="S21" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="T21" s="16">
-        <v>0</v>
-      </c>
-      <c r="U21" s="16" t="s">
+      <c r="T21" s="15">
+        <v>0</v>
+      </c>
+      <c r="U21" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="V21" s="16">
-        <v>0</v>
-      </c>
-      <c r="W21" s="16" t="s">
+      <c r="V21" s="15">
+        <v>0</v>
+      </c>
+      <c r="W21" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="X21" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="27"/>
-    </row>
-    <row r="22" spans="1:32" s="26" customFormat="1">
-      <c r="A22" s="25" t="s">
+      <c r="X21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+    </row>
+    <row r="22" spans="1:34" s="17" customFormat="1">
+      <c r="A22" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16" t="s">
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="H22" s="16">
-        <v>0</v>
-      </c>
-      <c r="I22" s="16" t="s">
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="16">
-        <v>0</v>
-      </c>
-      <c r="K22" s="16" t="s">
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="L22" s="16">
-        <v>0</v>
-      </c>
-      <c r="M22" s="16" t="s">
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="N22" s="16">
-        <v>0</v>
-      </c>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="16" t="s">
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="35"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="R22" s="16">
-        <v>0</v>
-      </c>
-      <c r="S22" s="16" t="s">
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
+      <c r="S22" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="T22" s="16">
-        <v>0</v>
-      </c>
-      <c r="U22" s="16" t="s">
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="V22" s="16">
-        <v>0</v>
-      </c>
-      <c r="W22" s="16" t="s">
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="X22" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="27"/>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="X22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+    </row>
+    <row r="23" spans="1:34">
       <c r="A23" s="14" t="s">
         <v>95</v>
       </c>
@@ -5086,6 +5227,8 @@
       <c r="N23" s="15">
         <v>0</v>
       </c>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36"/>
       <c r="Q23" s="15" t="s">
         <v>200</v>
       </c>
@@ -5104,8 +5247,20 @@
       <c r="V23" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="W23" s="35"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+    </row>
+    <row r="24" spans="1:34">
       <c r="A24" s="14" t="s">
         <v>106</v>
       </c>
@@ -5148,6 +5303,8 @@
       <c r="N24" s="15">
         <v>0</v>
       </c>
+      <c r="O24" s="35"/>
+      <c r="P24" s="36"/>
       <c r="Q24" s="15" t="s">
         <v>204</v>
       </c>
@@ -5160,8 +5317,22 @@
       <c r="T24" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="U24" s="35"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+    </row>
+    <row r="25" spans="1:34">
       <c r="A25" s="14" t="s">
         <v>118</v>
       </c>
@@ -5204,8 +5375,28 @@
       <c r="N25" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="O25" s="35"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+    </row>
+    <row r="26" spans="1:34">
       <c r="A26" s="14" t="s">
         <v>130</v>
       </c>
@@ -5248,8 +5439,28 @@
       <c r="N26" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="O26" s="35"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+    </row>
+    <row r="27" spans="1:34">
       <c r="A27" s="14" t="s">
         <v>138</v>
       </c>
@@ -5292,8 +5503,28 @@
       <c r="N27" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="O27" s="35"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
+    </row>
+    <row r="28" spans="1:34">
       <c r="A28" s="14" t="s">
         <v>147</v>
       </c>
@@ -5336,8 +5567,28 @@
       <c r="N28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="O28" s="35"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+    </row>
+    <row r="29" spans="1:34">
       <c r="A29" s="14" t="s">
         <v>155</v>
       </c>
@@ -5362,8 +5613,34 @@
       <c r="H29" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="I29" s="35"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
+    </row>
+    <row r="30" spans="1:34">
       <c r="A30" s="14" t="s">
         <v>18</v>
       </c>
@@ -5376,9 +5653,55 @@
       <c r="D30" s="15">
         <v>0</v>
       </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="35"/>
+      <c r="AF30" s="35"/>
+      <c r="AG30" s="35"/>
+      <c r="AH30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="K1:L1"/>
@@ -5395,22 +5718,6 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5463,150 +5770,150 @@
     <row r="1" spans="1:38">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="22" t="s">
         <v>682</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="21" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="21" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="21" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="21" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="22" t="s">
         <v>684</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="21" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="21" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="18"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="19"/>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="17" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="17" t="s">
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="19" t="s">
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="18"/>
+      <c r="AL2" s="19"/>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
@@ -7742,6 +8049,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
@@ -7755,29 +8082,9 @@
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
     <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7838,196 +8145,196 @@
     <row r="1" spans="1:52">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="22" t="s">
         <v>682</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="21" t="s">
         <v>732</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="21" t="s">
         <v>733</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="21" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="22" t="s">
         <v>734</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="22" t="s">
         <v>735</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="21" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="21" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="22" t="s">
         <v>736</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="21" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="21" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="22" t="s">
         <v>737</v>
       </c>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="21" t="s">
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="21" t="s">
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="21" t="s">
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="18"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="19"/>
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="24" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="24" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="24" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="24" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="24" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="24" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="24" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="24" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="24" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="24" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="24" t="s">
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="24" t="s">
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="24" t="s">
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="23" t="s">
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="23" t="s">
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="23" t="s">
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="23" t="s">
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="23" t="s">
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="23" t="s">
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="23" t="s">
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AZ2" s="18"/>
+      <c r="AZ2" s="19"/>
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="10" t="s">
@@ -10507,6 +10814,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="AY2:AZ2"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="AW1:AX1"/>
@@ -10522,41 +10863,7 @@
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G1:H1"/>
     <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10620,156 +10927,156 @@
     <row r="1" spans="1:40">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="21" t="s">
         <v>781</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="20" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="20" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="20" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="20" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="21" t="s">
         <v>784</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="20" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="20" t="s">
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="20" t="s">
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="18"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="19"/>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="17" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="17" t="s">
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="17" t="s">
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="19" t="s">
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="18"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="19"/>
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="4" t="s">
@@ -12137,12 +12444,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE2:AF2"/>
@@ -12159,22 +12476,12 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12241,150 +12548,150 @@
     <row r="1" spans="1:42">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>819</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="21" t="s">
         <v>781</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="21" t="s">
         <v>820</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="21" t="s">
         <v>821</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="21" t="s">
         <v>737</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="21" t="s">
         <v>822</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="21" t="s">
         <v>684</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="20" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="21" t="s">
         <v>683</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="20" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="20" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="20" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="20" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="21" t="s">
         <v>824</v>
       </c>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="18"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="19"/>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="17" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="18"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="19"/>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="4" t="s">
@@ -13922,29 +14229,7 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AO2:AP2"/>
@@ -13961,7 +14246,29 @@
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14024,152 +14331,152 @@
     <row r="1" spans="1:40">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="21" t="s">
         <v>860</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="21" t="s">
         <v>861</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="21" t="s">
         <v>863</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="20" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="21" t="s">
         <v>864</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="20" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="20" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="20" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="20" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="18"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="19"/>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="17" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="17" t="s">
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="19" t="s">
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="18"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="19"/>
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="4" t="s">
@@ -14291,12 +14598,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE2:AF2"/>
@@ -14313,22 +14630,12 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14393,162 +14700,162 @@
     <row r="1" spans="1:40">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="21" t="s">
         <v>865</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="21" t="s">
         <v>866</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="21" t="s">
         <v>867</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="21" t="s">
         <v>868</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="20" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="21" t="s">
         <v>869</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="20" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="20" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="21" t="s">
         <v>870</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="20" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="21" t="s">
         <v>871</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="20" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="21" t="s">
         <v>872</v>
       </c>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="20" t="s">
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="20" t="s">
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="20" t="s">
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="20" t="s">
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="AN1" s="18"/>
+      <c r="AN1" s="19"/>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="17" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="17" t="s">
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="17" t="s">
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="17" t="s">
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="17" t="s">
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AN2" s="18"/>
+      <c r="AN2" s="19"/>
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="4" t="s">
@@ -14674,12 +14981,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE2:AF2"/>
@@ -14696,22 +15013,12 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14776,162 +15083,162 @@
     <row r="1" spans="1:40">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>874</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="21" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="21" t="s">
         <v>877</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="21" t="s">
         <v>878</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="21" t="s">
         <v>879</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="21" t="s">
         <v>880</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="20" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="21" t="s">
         <v>864</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="20" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="20" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="20" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="21" t="s">
         <v>881</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="20" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="20" t="s">
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="21" t="s">
         <v>880</v>
       </c>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="20" t="s">
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="20" t="s">
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="21" t="s">
         <v>878</v>
       </c>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="20" t="s">
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="21" t="s">
         <v>874</v>
       </c>
-      <c r="AN1" s="18"/>
+      <c r="AN1" s="19"/>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="17" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="17" t="s">
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="17" t="s">
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="17" t="s">
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="17" t="s">
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AN2" s="18"/>
+      <c r="AN2" s="19"/>
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="4" t="s">
@@ -15057,12 +15364,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE2:AF2"/>
@@ -15079,22 +15396,12 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15112,7 +15419,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9"/>
@@ -15145,122 +15452,122 @@
     <row r="1" spans="1:32">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="17" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="17" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="17" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="17" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="17" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="17" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="18"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="19"/>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="18"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="19"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="4" t="s">
@@ -17506,36 +17813,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="G1:H1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="S1:T1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17595,148 +17902,148 @@
     <row r="1" spans="1:38">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="17" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="17" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="17" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="17" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="17" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="17" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="17" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="17" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="18"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="19"/>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="17" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="17" t="s">
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="19" t="s">
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="18"/>
+      <c r="AL2" s="19"/>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
@@ -19474,6 +19781,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
@@ -19487,29 +19814,9 @@
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
     <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19570,154 +19877,154 @@
     <row r="1" spans="1:38">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="17" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="17" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="17" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="17" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="17" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="17" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="17" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="17" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="17" t="s">
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="17" t="s">
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="17" t="s">
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="AL1" s="18"/>
+      <c r="AL1" s="19"/>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="17" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="17" t="s">
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="17" t="s">
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="17" t="s">
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="18"/>
+      <c r="AL2" s="19"/>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
@@ -22425,6 +22732,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
@@ -22438,29 +22765,9 @@
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
     <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22519,122 +22826,122 @@
     <row r="1" spans="1:30">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="17" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="17" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="17" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="17" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="17" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="17" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="17" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AD1" s="18"/>
+      <c r="AD1" s="19"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="18"/>
+      <c r="AD2" s="19"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
@@ -24650,15 +24957,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="U1:V1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="K1:L1"/>
@@ -24673,9 +24971,18 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
   </mergeCells>
@@ -24726,114 +25033,114 @@
     <row r="1" spans="1:30">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="20" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="18"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="19"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="19" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="19" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="18"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="19"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
@@ -26631,15 +26938,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="U1:V1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="E1:F1"/>
@@ -26654,9 +26952,18 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
   </mergeCells>
@@ -26711,140 +27018,140 @@
     <row r="1" spans="1:36">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="21" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="21" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="21" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="21" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="21" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="21" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="18"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="19"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="17" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="19" t="s">
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="18"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="19"/>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="4" t="s">
@@ -29348,6 +29655,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="C1:D1"/>
@@ -29364,24 +29689,6 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29434,118 +29741,118 @@
     <row r="1" spans="1:30">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="21" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="22" t="s">
         <v>608</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="21" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="21" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="18"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="19"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="18"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="19"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
@@ -31087,15 +31394,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="U1:V1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="Y2:Z2"/>
@@ -31110,9 +31408,18 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
   </mergeCells>
@@ -31167,140 +31474,140 @@
     <row r="1" spans="1:36">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="21" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="21" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="21" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="21" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="21" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="21" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="18"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="19"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="19" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="19" t="s">
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="18"/>
+      <c r="AJ2" s="19"/>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="4" t="s">
@@ -32754,6 +33061,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="C1:D1"/>
@@ -32770,24 +33095,6 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/欧地航线E&ATA与脱班时间统计.xlsx
+++ b/欧地航线E&ATA与脱班时间统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\demo\capaStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F244BED9-160D-4238-994A-70216CF9AE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677EBCF0-C1D8-42CF-BFDC-0111269B3C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" tabRatio="657" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="-16200" windowWidth="14610" windowHeight="15585" tabRatio="657" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AEU1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,20 @@
     <sheet name="GEM" sheetId="15" r:id="rId15"/>
     <sheet name="IEX" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2967,12 +2980,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3061,7 +3073,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3102,11 +3114,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="7" applyFill="1"/>
     <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3131,6 +3139,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="16" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -3539,138 +3549,138 @@
     <row r="1" spans="1:34">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="35" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="35" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="35" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="35" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="35" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="37" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="36"/>
+      <c r="AH1" s="32"/>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="36"/>
+      <c r="AH2" s="32"/>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="4" t="s">
@@ -5685,7 +5695,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9"/>
@@ -5722,150 +5732,150 @@
     <row r="1" spans="1:38">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="35" t="s">
         <v>686</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="39" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="39" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="39" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="39" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="35" t="s">
         <v>687</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="39" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="35" t="s">
         <v>688</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="39" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="36"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="35" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="37" t="s">
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="36"/>
+      <c r="AL2" s="32"/>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
@@ -6484,35 +6494,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="33" customFormat="1">
+    <row r="10" spans="1:38" s="29" customFormat="1">
       <c r="A10" s="27" t="s">
         <v>701</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>702</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="30" t="s">
+      <c r="D10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="28">
         <v>1</v>
       </c>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="30" t="s">
+      <c r="P10" s="30"/>
+      <c r="Q10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="R10" s="30">
+      <c r="R10" s="28">
         <v>-3</v>
       </c>
-      <c r="T10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Z10" s="34"/>
+      <c r="T10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Z10" s="30"/>
     </row>
     <row r="11" spans="1:38" s="18" customFormat="1">
       <c r="A11" s="17" t="s">
@@ -6670,30 +6680,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="33" customFormat="1">
+    <row r="13" spans="1:38" s="29" customFormat="1">
       <c r="A13" s="27" t="s">
         <v>707</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>708</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="30" t="s">
+      <c r="D13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="28">
         <v>2</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Z13" s="34"/>
+      <c r="J13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Z13" s="30"/>
     </row>
     <row r="14" spans="1:38" s="18" customFormat="1">
       <c r="A14" s="17" t="s">
@@ -8112,7 +8122,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9"/>
@@ -8157,196 +8167,196 @@
     <row r="1" spans="1:52">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="35" t="s">
         <v>686</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="39" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="35" t="s">
         <v>735</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="38" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="34" t="s">
         <v>736</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="34" t="s">
         <v>737</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="39" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="35" t="s">
         <v>738</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="39" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="35" t="s">
         <v>739</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="35" t="s">
         <v>735</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="39" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="35" t="s">
         <v>740</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="39" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="39" t="s">
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="39" t="s">
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="36"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="32"/>
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="42" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="42" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="42" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="42" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="42" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="42" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="42" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="42" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="42" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="42" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="42" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="42" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="42" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="42" t="s">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="42" t="s">
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="41" t="s">
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="41" t="s">
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="41" t="s">
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="41" t="s">
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="41" t="s">
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="41" t="s">
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="41" t="s">
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AZ2" s="36"/>
+      <c r="AZ2" s="32"/>
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="10" t="s">
@@ -9796,102 +9806,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="28" customFormat="1">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:34" s="39" customFormat="1">
+      <c r="A18" s="17" t="s">
         <v>748</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="17" t="s">
         <v>767</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="20">
         <v>7</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="20">
         <v>7</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="20">
         <v>7</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="20">
         <v>8</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="20">
         <v>8</v>
       </c>
-      <c r="M18" s="30" t="s">
+      <c r="M18" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="N18" s="30">
-        <v>0</v>
-      </c>
-      <c r="O18" s="30" t="s">
+      <c r="N18" s="20">
+        <v>0</v>
+      </c>
+      <c r="O18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="P18" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="30" t="s">
+      <c r="P18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="R18" s="30">
-        <v>0</v>
-      </c>
-      <c r="S18" s="30" t="s">
+      <c r="R18" s="20">
+        <v>0</v>
+      </c>
+      <c r="S18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="T18" s="30">
-        <v>0</v>
-      </c>
-      <c r="U18" s="30" t="s">
+      <c r="T18" s="20">
+        <v>0</v>
+      </c>
+      <c r="U18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V18" s="30">
-        <v>0</v>
-      </c>
-      <c r="W18" s="30" t="s">
+      <c r="V18" s="20">
+        <v>0</v>
+      </c>
+      <c r="W18" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="X18" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="30" t="s">
+      <c r="X18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="Z18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="30" t="s">
+      <c r="Z18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AD18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="30" t="s">
+      <c r="AD18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AF18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="30" t="s">
+      <c r="AF18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="AH18" s="30">
+      <c r="AH18" s="20">
         <v>0</v>
       </c>
     </row>
@@ -9994,102 +10004,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" s="28" customFormat="1">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:34" s="39" customFormat="1">
+      <c r="A20" s="17" t="s">
         <v>756</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="17" t="s">
         <v>769</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="30">
-        <v>0</v>
-      </c>
-      <c r="E20" s="30" t="s">
+      <c r="D20" s="20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="30">
-        <v>0</v>
-      </c>
-      <c r="G20" s="30" t="s">
+      <c r="F20" s="20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="30">
-        <v>0</v>
-      </c>
-      <c r="I20" s="30" t="s">
+      <c r="H20" s="20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="30">
-        <v>0</v>
-      </c>
-      <c r="K20" s="30" t="s">
+      <c r="J20" s="20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="L20" s="30">
-        <v>0</v>
-      </c>
-      <c r="M20" s="30" t="s">
+      <c r="L20" s="20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="N20" s="30">
-        <v>0</v>
-      </c>
-      <c r="O20" s="30" t="s">
+      <c r="N20" s="20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="P20" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="30" t="s">
+      <c r="P20" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="R20" s="30">
-        <v>0</v>
-      </c>
-      <c r="S20" s="30" t="s">
+      <c r="R20" s="20">
+        <v>0</v>
+      </c>
+      <c r="S20" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="T20" s="30">
-        <v>0</v>
-      </c>
-      <c r="U20" s="30" t="s">
+      <c r="T20" s="20">
+        <v>0</v>
+      </c>
+      <c r="U20" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="V20" s="30">
-        <v>0</v>
-      </c>
-      <c r="W20" s="30" t="s">
+      <c r="V20" s="20">
+        <v>0</v>
+      </c>
+      <c r="W20" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="X20" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="30" t="s">
+      <c r="X20" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="Z20" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="30" t="s">
+      <c r="Z20" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AD20" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="30" t="s">
+      <c r="AD20" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="AF20" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="30" t="s">
+      <c r="AF20" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="AH20" s="30">
+      <c r="AH20" s="20">
         <v>0</v>
       </c>
     </row>
@@ -10191,101 +10201,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:34" s="25" customFormat="1">
+      <c r="A22" s="17" t="s">
         <v>760</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="15">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="D22" s="20">
+        <v>0</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="20">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-      <c r="I22" s="15" t="s">
+      <c r="H22" s="20">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="J22" s="15">
-        <v>0</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="J22" s="20">
+        <v>0</v>
+      </c>
+      <c r="K22" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15" t="s">
+      <c r="L22" s="20">
+        <v>0</v>
+      </c>
+      <c r="M22" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="N22" s="15">
-        <v>0</v>
-      </c>
-      <c r="O22" s="15" t="s">
+      <c r="N22" s="20">
+        <v>0</v>
+      </c>
+      <c r="O22" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="15" t="s">
+      <c r="P22" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="R22" s="15">
-        <v>0</v>
-      </c>
-      <c r="S22" s="15" t="s">
+      <c r="R22" s="20">
+        <v>0</v>
+      </c>
+      <c r="S22" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="T22" s="15">
-        <v>0</v>
-      </c>
-      <c r="U22" s="15" t="s">
+      <c r="T22" s="20">
+        <v>0</v>
+      </c>
+      <c r="U22" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="V22" s="15">
-        <v>0</v>
-      </c>
-      <c r="W22" s="15" t="s">
+      <c r="V22" s="20">
+        <v>0</v>
+      </c>
+      <c r="W22" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="X22" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="15" t="s">
+      <c r="X22" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="Z22" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="15" t="s">
+      <c r="Z22" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="AD22" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="15" t="s">
+      <c r="AD22" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="AF22" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="15" t="s">
+      <c r="AF22" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="AH22" s="15">
+      <c r="AH22" s="20">
         <v>0</v>
       </c>
     </row>
@@ -10957,156 +10968,156 @@
     <row r="1" spans="1:40">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>781</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="34" t="s">
         <v>782</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="34" t="s">
         <v>783</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="34" t="s">
         <v>784</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="34" t="s">
         <v>785</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="34" t="s">
         <v>786</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="38" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="34" t="s">
         <v>498</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="38" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="34" t="s">
         <v>611</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="38" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="34" t="s">
         <v>612</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="34" t="s">
         <v>787</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="38" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="38" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="34" t="s">
         <v>788</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="38" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="38" t="s">
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="34" t="s">
         <v>786</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="34" t="s">
         <v>781</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="36"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="35" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="37" t="s">
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="36"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="32"/>
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="4" t="s">
@@ -12578,150 +12589,150 @@
     <row r="1" spans="1:42">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>823</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="34" t="s">
         <v>781</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="34" t="s">
         <v>783</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="34" t="s">
         <v>785</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="34" t="s">
         <v>824</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="34" t="s">
         <v>825</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="34" t="s">
         <v>741</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="38" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="34" t="s">
         <v>826</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="34" t="s">
         <v>688</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="38" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="38" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="34" t="s">
         <v>687</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="38" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="38" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="34" t="s">
         <v>827</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="38" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="34" t="s">
         <v>828</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="36"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="32"/>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="36"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="32"/>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="4" t="s">
@@ -14367,152 +14378,152 @@
     <row r="1" spans="1:40">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>863</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="34" t="s">
         <v>783</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="34" t="s">
         <v>864</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="34" t="s">
         <v>865</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="34" t="s">
         <v>786</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="38" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="34" t="s">
         <v>867</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="38" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="34" t="s">
         <v>868</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="38" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="34" t="s">
         <v>787</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="38" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="38" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="34" t="s">
         <v>786</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="38" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="34" t="s">
         <v>863</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="36"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="35" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="37" t="s">
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="36"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="32"/>
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="4" t="s">
@@ -14736,162 +14747,162 @@
     <row r="1" spans="1:40">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>863</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="34" t="s">
         <v>869</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="34" t="s">
         <v>871</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="34" t="s">
         <v>863</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="34" t="s">
         <v>786</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="38" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="34" t="s">
         <v>740</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="38" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="34" t="s">
         <v>873</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="38" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="34" t="s">
         <v>456</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="38" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="38" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="34" t="s">
         <v>875</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="38" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="38" t="s">
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="38" t="s">
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="34" t="s">
         <v>786</v>
       </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="38" t="s">
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="34" t="s">
         <v>863</v>
       </c>
-      <c r="AN1" s="36"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="35" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="35" t="s">
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="35" t="s">
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AN2" s="36"/>
+      <c r="AN2" s="32"/>
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="4" t="s">
@@ -15119,162 +15130,162 @@
     <row r="1" spans="1:40">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>878</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="34" t="s">
         <v>879</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="34" t="s">
         <v>880</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="34" t="s">
         <v>881</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="34" t="s">
         <v>882</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="34" t="s">
         <v>883</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="34" t="s">
         <v>884</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="38" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="38" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="38" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="34" t="s">
         <v>868</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="38" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="38" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="34" t="s">
         <v>885</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="38" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="38" t="s">
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="34" t="s">
         <v>884</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="34" t="s">
         <v>786</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="38" t="s">
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="34" t="s">
         <v>882</v>
       </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="38" t="s">
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="34" t="s">
         <v>878</v>
       </c>
-      <c r="AN1" s="36"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="35" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="35" t="s">
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="35" t="s">
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AN2" s="36"/>
+      <c r="AN2" s="32"/>
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="4" t="s">
@@ -15489,122 +15500,122 @@
     <row r="1" spans="1:32">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="35" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="35" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="35" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="35" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="35" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="36"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="32"/>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="36"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="32"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="4" t="s">
@@ -17953,148 +17964,148 @@
     <row r="1" spans="1:38">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="35" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="35" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="35" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="35" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="35" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="35" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="36"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="35" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="37" t="s">
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="36"/>
+      <c r="AL2" s="32"/>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
@@ -19928,11 +19939,11 @@
   </sheetPr>
   <dimension ref="A1:AL35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28:XFD29"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9"/>
@@ -19974,154 +19985,154 @@
     <row r="1" spans="1:38">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="35" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="35" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="35" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="35" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="35" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="35" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="35" t="s">
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="35" t="s">
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="35" t="s">
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="AL1" s="36"/>
+      <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="35" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="35" t="s">
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="36"/>
+      <c r="AL2" s="32"/>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
@@ -21697,110 +21708,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" s="33" customFormat="1">
+    <row r="21" spans="1:38" s="29" customFormat="1">
       <c r="A21" s="27" t="s">
         <v>311</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="30">
-        <v>0</v>
-      </c>
-      <c r="E21" s="30" t="s">
+      <c r="D21" s="28">
+        <v>0</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="F21" s="30">
-        <v>0</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AF21" s="34"/>
-    </row>
-    <row r="22" spans="1:38" s="33" customFormat="1">
+      <c r="F21" s="28">
+        <v>0</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AF21" s="30"/>
+    </row>
+    <row r="22" spans="1:38" s="29" customFormat="1">
       <c r="A22" s="27" t="s">
         <v>437</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="28">
         <v>-7</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="30">
-        <v>0</v>
-      </c>
-      <c r="G22" s="30" t="s">
+      <c r="F22" s="28">
+        <v>0</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="30">
-        <v>0</v>
-      </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="30" t="s">
+      <c r="H22" s="28">
+        <v>0</v>
+      </c>
+      <c r="J22" s="30"/>
+      <c r="K22" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="L22" s="30">
-        <v>0</v>
-      </c>
-      <c r="M22" s="30" t="s">
+      <c r="L22" s="28">
+        <v>0</v>
+      </c>
+      <c r="M22" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="N22" s="30">
-        <v>0</v>
-      </c>
-      <c r="O22" s="30" t="s">
+      <c r="N22" s="28">
+        <v>0</v>
+      </c>
+      <c r="O22" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="P22" s="30">
-        <v>0</v>
-      </c>
-      <c r="R22" s="34"/>
-      <c r="S22" s="30" t="s">
+      <c r="P22" s="28">
+        <v>0</v>
+      </c>
+      <c r="R22" s="30"/>
+      <c r="S22" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="T22" s="30">
-        <v>0</v>
-      </c>
-      <c r="V22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="30" t="s">
+      <c r="T22" s="28">
+        <v>0</v>
+      </c>
+      <c r="V22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="Z22" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="30" t="s">
+      <c r="Z22" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AD22" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="30" t="s">
+      <c r="AD22" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="AF22" s="30">
+      <c r="AF22" s="28">
         <v>0</v>
       </c>
     </row>
@@ -22965,11 +22976,11 @@
   </sheetPr>
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD21"/>
+      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9"/>
@@ -23009,122 +23020,122 @@
     <row r="1" spans="1:30">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="35" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="31" t="s">
         <v>453</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="31" t="s">
         <v>454</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="35" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="35" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="31" t="s">
         <v>455</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="35" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="35" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AD1" s="36"/>
+      <c r="AD1" s="32"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="32"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
@@ -25239,114 +25250,114 @@
     <row r="1" spans="1:30">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="34" t="s">
         <v>498</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="38" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="38" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="38" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="32"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="37" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="37" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="36"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="32"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
@@ -27156,140 +27167,140 @@
     <row r="1" spans="1:36">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="35" t="s">
         <v>547</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="39" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="39" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="39" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="39" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="39" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="39" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="35" t="s">
         <v>551</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="36"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="32"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="36"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="32"/>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="4" t="s">
@@ -29879,118 +29890,118 @@
     <row r="1" spans="1:30">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="39" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="38" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="34" t="s">
         <v>611</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="39" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="35" t="s">
         <v>612</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="39" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="39" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="35" t="s">
         <v>498</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="32"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="36"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="32"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
@@ -31612,140 +31623,140 @@
     <row r="1" spans="1:36">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="35" t="s">
         <v>651</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="39" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="39" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="39" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="39" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="39" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="39" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="35" t="s">
         <v>551</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="35" t="s">
         <v>651</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="36"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="32"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="37" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="36"/>
+      <c r="AJ2" s="32"/>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="4" t="s">
